--- a/Prototypes/STRUM/AllObs.xlsx
+++ b/Prototypes/STRUM/AllObs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMNGP\Prototypes\STRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE338D2E-C7AE-47BB-B842-63EDAD0F5C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC023CEC-E9C8-4F49-8607-D7F75B06D325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5493" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5499" uniqueCount="68">
   <si>
     <t>canopy.height</t>
   </si>
@@ -250,10 +250,16 @@
     <t>FarNorthIrrAvocado</t>
   </si>
   <si>
-    <t>Row.STRUM.Fruit.DryWtPerFruit</t>
+    <t>Row.STRUM.Fruit.DryWtPerFruit(g)</t>
   </si>
   <si>
-    <t>Row.STRUM.Fruit.TotalWt</t>
+    <t>WhangareiIrrAvocado</t>
+  </si>
+  <si>
+    <t>BayofPlentyIrrAvocado</t>
+  </si>
+  <si>
+    <t>Row.STRUM.Fruit.TotalWt(kg/tree)</t>
   </si>
 </sst>
 </file>
@@ -754,13 +760,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB2727"/>
+  <dimension ref="A1:AB2733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2722" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2725" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2727" sqref="C2727"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -795,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>64</v>
@@ -58383,6 +58389,99 @@
     <row r="2727" spans="1:7">
       <c r="A2727" s="23" t="s">
         <v>63</v>
+      </c>
+      <c r="C2727" s="21">
+        <v>42990</v>
+      </c>
+      <c r="D2727">
+        <v>136</v>
+      </c>
+      <c r="E2727">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:7">
+      <c r="A2728" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2728" s="21">
+        <v>43381</v>
+      </c>
+      <c r="D2728">
+        <v>82</v>
+      </c>
+      <c r="E2728">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:7">
+      <c r="A2729" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2729" s="21">
+        <v>43026</v>
+      </c>
+      <c r="D2729">
+        <v>80</v>
+      </c>
+      <c r="E2729">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:7">
+      <c r="A2730" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2730" s="21">
+        <v>43383</v>
+      </c>
+      <c r="D2730">
+        <v>206</v>
+      </c>
+      <c r="E2730">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:7">
+      <c r="A2731" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2731" s="21">
+        <v>43745</v>
+      </c>
+      <c r="D2731">
+        <v>158</v>
+      </c>
+      <c r="E2731">
+        <v>215.4</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:7">
+      <c r="A2732" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2732" s="21">
+        <v>43010</v>
+      </c>
+      <c r="D2732">
+        <v>116</v>
+      </c>
+      <c r="E2732">
+        <v>260.8</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:7">
+      <c r="A2733" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2733" s="21">
+        <v>43389</v>
+      </c>
+      <c r="D2733">
+        <v>216</v>
+      </c>
+      <c r="E2733">
+        <v>254.7</v>
       </c>
     </row>
   </sheetData>

--- a/Prototypes/STRUM/AllObs.xlsx
+++ b/Prototypes/STRUM/AllObs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMNGP\Prototypes\STRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A23D4D-4FAF-40AF-965C-C3263683A948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749E4E55-65C9-463A-9975-A3D8126EF366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,10 +277,10 @@
     <t>Tree.water.sap(L/day)</t>
   </si>
   <si>
-    <t>OmokaroaIrrAvocado</t>
+    <t>OmokaroaAvocadoWaterIrr</t>
   </si>
   <si>
-    <t>OmokaroaDryAvocado</t>
+    <t>OmokaroaAvocadoWaterDry</t>
   </si>
 </sst>
 </file>
@@ -888,10 +888,10 @@
   <dimension ref="A1:AD4710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H4706" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4487" sqref="D4487:D4488"/>
+      <selection pane="bottomRight" activeCell="F4154" sqref="F4154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
